--- a/sample.xlsx
+++ b/sample.xlsx
@@ -11,24 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>Vikas</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Emails</t>
+  </si>
+  <si>
+    <t>Vishal passi</t>
+  </si>
+  <si>
+    <t>vishalaviox@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikas </t>
+  </si>
+  <si>
+    <t>vikasvisking007@gmail.com</t>
+  </si>
+  <si>
+    <t>Vikas 2</t>
   </si>
   <si>
     <t>vikasaviox@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vikas Passi </t>
-  </si>
-  <si>
-    <t>vikasvisking007@gmail.com</t>
-  </si>
-  <si>
-    <t>Vikas Pass 2</t>
-  </si>
-  <si>
-    <t>Vikas 2</t>
   </si>
 </sst>
 </file>
@@ -41,11 +47,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -296,7 +302,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -304,19 +310,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
